--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T13:15:33+00:00</t>
+    <t>2025-05-19T13:39:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T13:39:30+00:00</t>
+    <t>2025-05-19T13:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T13:56:15+00:00</t>
+    <t>2025-05-19T14:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T14:11:07+00:00</t>
+    <t>2025-05-19T14:28:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T14:28:33+00:00</t>
+    <t>2025-05-19T14:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T14:47:37+00:00</t>
+    <t>2025-05-19T15:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T15:05:23+00:00</t>
+    <t>2025-05-19T15:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T15:14:17+00:00</t>
+    <t>2025-05-19T16:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T16:30:54+00:00</t>
+    <t>2025-05-19T16:42:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T16:42:12+00:00</t>
+    <t>2025-05-19T16:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T16:48:48+00:00</t>
+    <t>2025-05-20T09:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T09:51:21+00:00</t>
+    <t>2025-05-20T10:05:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2460,7 +2460,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+    <t>https://www.meddra.org</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -5970,7 +5970,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.34765625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="20.09375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T10:05:16+00:00</t>
+    <t>2025-05-20T12:05:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:05:22+00:00</t>
+    <t>2025-05-20T12:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:16:37+00:00</t>
+    <t>2025-05-20T12:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:25:23+00:00</t>
+    <t>2025-05-20T12:38:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/draft-exemple/ig/all-profiles.xlsx
+++ b/draft-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T12:38:27+00:00</t>
+    <t>2025-05-20T16:31:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
